--- a/data/excel/monthly_targets.xlsx
+++ b/data/excel/monthly_targets.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boughida\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D591CD5-748C-4CA7-A1C5-F7895612AA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -246,11 +235,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +250,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -282,41 +279,74 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -327,10 +357,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -368,69 +398,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,54 +486,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -511,7 +542,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -520,7 +551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -529,7 +560,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -537,10 +568,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -569,7 +600,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -582,13 +613,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -606,6082 +636,6085 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="16.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>44927</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>5429539</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>44927</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>7808052</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>44927</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>4066978</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>44927</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>3483297</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>44927</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>3478480</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
         <v>44927</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>2796507</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>44927</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>2722738</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>44927</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>2123332</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>44927</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>1634475</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>44927</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>1102319</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>44927</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>1029692</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>44927</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>729936</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>44958</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>5854397</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>44958</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>7935744</v>
       </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>44958</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>4338861</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>3722935</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
         <v>44958</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="6">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5">
         <v>44958</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>2844291</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>44958</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>2373090</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="6">
         <v>8</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>44958</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>1827506</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="6">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>1390515</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>44958</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>1217124</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>44958</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>915773</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="6">
         <v>12</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <v>44958</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>781292</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="6">
         <v>1</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <v>44986</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>5588426</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="D26" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <v>44986</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>7047311</v>
       </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="6">
         <v>3</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <v>44986</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>4710579</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <v>44986</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>3276676</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="6">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5">
         <v>44986</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>3691219</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31" s="2">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="6">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5">
         <v>44986</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>2941123</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="6">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <v>44986</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>2531645</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="6">
         <v>8</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="5">
         <v>44986</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>2068487</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="6">
         <v>9</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="5">
         <v>44986</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>1598143</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="6">
         <v>10</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="5">
         <v>44986</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>1313072</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="6">
         <v>11</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="5">
         <v>44986</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>972433</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="6">
         <v>12</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="5">
         <v>44986</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="6">
         <v>1</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="5">
         <v>45017</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>5407301</v>
       </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="D38" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="6">
         <v>2</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="6">
         <v>7888576</v>
       </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D39" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="5">
         <v>45017</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>4547694</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="6">
         <v>4</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="5">
         <v>45017</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="6">
         <v>3338979</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" s="2">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="6">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5">
         <v>45017</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <v>3645665</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43" s="2">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="6">
+        <v>6</v>
+      </c>
+      <c r="B43" s="5">
         <v>45017</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="6">
         <v>2993918</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="6">
         <v>7</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="5">
         <v>45017</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="6">
         <v>2414251</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="6">
         <v>8</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="5">
         <v>45017</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="6">
         <v>1878129</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="6">
         <v>9</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="5">
         <v>45017</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
         <v>1449468</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="6">
         <v>10</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="5">
         <v>45017</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="6">
         <v>1181310</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="6">
         <v>11</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="5">
         <v>45017</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
         <v>935240</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="6">
         <v>12</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="6">
         <v>833700</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="6">
         <v>1</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="5">
         <v>45047</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="6">
         <v>6204496</v>
       </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="D50" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="5">
         <v>45047</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="6">
         <v>6752575</v>
       </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="D51" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="6">
         <v>3</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="5">
         <v>45047</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="6">
         <v>4218511</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="6">
         <v>4</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="5">
         <v>45047</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="6">
         <v>3411164</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>5</v>
-      </c>
-      <c r="B54" s="2">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="6">
+        <v>5</v>
+      </c>
+      <c r="B54" s="5">
         <v>45047</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="6">
         <v>3683139</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>6</v>
-      </c>
-      <c r="B55" s="2">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="6">
+        <v>6</v>
+      </c>
+      <c r="B55" s="5">
         <v>45047</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="6">
         <v>2810867</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="6">
         <v>7</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="5">
         <v>45047</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="5">
         <v>45047</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="6">
         <v>2122846</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="5">
         <v>45047</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="6">
         <v>1366942</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="6">
         <v>10</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="5">
         <v>45047</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="6">
         <v>1098100</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="6">
         <v>11</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="5">
         <v>45047</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="6">
         <v>959488</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="6">
         <v>12</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="5">
         <v>45047</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="6">
         <v>791182</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="5">
         <v>45078</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="6">
         <v>5231139</v>
       </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="D62" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="6">
         <v>2</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="5">
         <v>45078</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="6">
         <v>5848572</v>
       </c>
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="D63" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="6">
         <v>3</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="5">
         <v>45078</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="6">
         <v>3832405</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="6">
         <v>4</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="5">
         <v>45078</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="6">
         <v>2648389</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>5</v>
-      </c>
-      <c r="B66" s="2">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="6">
+        <v>5</v>
+      </c>
+      <c r="B66" s="5">
         <v>45078</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="6">
         <v>2607484</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>6</v>
-      </c>
-      <c r="B67" s="2">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="6">
+        <v>6</v>
+      </c>
+      <c r="B67" s="5">
         <v>45078</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="6">
         <v>2535776</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="6">
         <v>7</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="5">
         <v>45078</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="6">
         <v>2146983</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="6">
         <v>8</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="5">
         <v>45078</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="6">
         <v>1599173</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="6">
         <v>9</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="5">
         <v>45078</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="6">
         <v>1306929</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="5">
         <v>45078</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="6">
         <v>912228</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="6">
         <v>11</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="5">
         <v>45078</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="6">
         <v>764463</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="6">
         <v>12</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="5">
         <v>45078</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="6">
         <v>599830</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="6">
         <v>1</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="5">
         <v>45108</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="6">
         <v>4719994</v>
       </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="D74" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="6">
         <v>2</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="5">
         <v>45108</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="6">
         <v>5442527</v>
       </c>
-      <c r="D75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="D75" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="6">
         <v>3</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="5">
         <v>45108</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="6">
         <v>3385011</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="6">
         <v>4</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="5">
         <v>45108</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="6">
         <v>2860815</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>5</v>
-      </c>
-      <c r="B78" s="2">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="6">
+        <v>5</v>
+      </c>
+      <c r="B78" s="5">
         <v>45108</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="6">
         <v>2566574</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>6</v>
-      </c>
-      <c r="B79" s="2">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="6">
+        <v>6</v>
+      </c>
+      <c r="B79" s="5">
         <v>45108</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="6">
         <v>2497760</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="6">
         <v>7</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="5">
         <v>45108</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="6">
         <v>1916266</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="6">
         <v>8</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="5">
         <v>45108</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="6">
         <v>9</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="5">
         <v>45108</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="6">
         <v>1318956</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="6">
         <v>10</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="5">
         <v>45108</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="6">
         <v>926789</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="6">
         <v>11</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="5">
         <v>45108</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="6">
         <v>773243</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="6">
         <v>12</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="5">
         <v>45108</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="6">
         <v>590628</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="6">
         <v>1</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="5">
         <v>45139</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="6">
         <v>6431657</v>
       </c>
-      <c r="D86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="D86" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="6">
         <v>2</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="5">
         <v>45139</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="6">
         <v>8150533</v>
       </c>
-      <c r="D87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="D87" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="6">
         <v>3</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="5">
         <v>45139</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="6">
         <v>4671069</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="6">
         <v>4</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="5">
         <v>45139</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="6">
         <v>3256216</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>5</v>
-      </c>
-      <c r="B90" s="2">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="6">
+        <v>5</v>
+      </c>
+      <c r="B90" s="5">
         <v>45139</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="6">
         <v>3237674</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>6</v>
-      </c>
-      <c r="B91" s="2">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="6">
+        <v>6</v>
+      </c>
+      <c r="B91" s="5">
         <v>45139</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="6">
         <v>2707869</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="6">
         <v>7</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="5">
         <v>45139</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="6">
         <v>2646495</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="6">
         <v>8</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="5">
         <v>45139</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="6">
         <v>1990912</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="6">
         <v>9</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="5">
         <v>45139</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="6">
         <v>1618057</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="6">
         <v>10</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="5">
         <v>45139</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="6">
         <v>1226977</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="6">
         <v>11</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="5">
         <v>45139</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="6">
         <v>1004910</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="6">
         <v>12</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="5">
         <v>45139</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="6">
         <v>868893</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="6">
         <v>1</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="5">
         <v>45170</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="6">
         <v>8408636</v>
       </c>
-      <c r="D98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="D98" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="6">
         <v>2</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="5">
         <v>45170</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="6">
         <v>8980844</v>
       </c>
-      <c r="D99" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="D99" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="6">
         <v>3</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="5">
         <v>45170</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="6">
         <v>5487617</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="6">
         <v>4</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="5">
         <v>45170</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="6">
         <v>4987284</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>5</v>
-      </c>
-      <c r="B102" s="2">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="6">
+        <v>5</v>
+      </c>
+      <c r="B102" s="5">
         <v>45170</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="6">
         <v>4656291</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>6</v>
-      </c>
-      <c r="B103" s="2">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="6">
+        <v>6</v>
+      </c>
+      <c r="B103" s="5">
         <v>45170</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="6">
         <v>4228936</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="5">
         <v>45170</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="6">
         <v>3387696</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="6">
         <v>8</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="5">
         <v>45170</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="6">
         <v>2850824</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="6">
         <v>9</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="5">
         <v>45170</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="6">
         <v>2066179</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="6">
         <v>10</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="5">
         <v>45170</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="6">
         <v>1587675</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="6">
         <v>11</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="5">
         <v>45170</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="6">
         <v>1344595</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="5">
         <v>45170</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="6">
         <v>1104774</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="6">
         <v>1</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="5">
         <v>45200</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="6">
         <v>6089025</v>
       </c>
-      <c r="D110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="D110" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="6">
         <v>2</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="5">
         <v>45200</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="6">
         <v>7138146</v>
       </c>
-      <c r="D111" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="D111" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="6">
         <v>3</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="5">
         <v>45200</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="6">
         <v>4885632</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="6">
         <v>4</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="5">
         <v>45200</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="6">
         <v>3244210</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>5</v>
-      </c>
-      <c r="B114" s="2">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="6">
+        <v>5</v>
+      </c>
+      <c r="B114" s="5">
         <v>45200</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="6">
         <v>3605626</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>6</v>
-      </c>
-      <c r="B115" s="2">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="6">
+        <v>6</v>
+      </c>
+      <c r="B115" s="5">
         <v>45200</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="6">
         <v>3074806</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="6">
         <v>7</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="6">
         <v>2376230</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="6">
         <v>8</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="5">
         <v>45200</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="6">
         <v>1868073</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="A118" s="6">
         <v>9</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="5">
         <v>45200</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="6">
         <v>1488800</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="5">
         <v>45200</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="6">
         <v>1291063</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="6">
         <v>11</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="6">
         <v>1036237</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="6">
         <v>12</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="5">
         <v>45200</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="6">
         <v>782983</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="6">
         <v>1</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="5">
         <v>45231</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="6">
         <v>6189086</v>
       </c>
-      <c r="D122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="D122" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="6">
         <v>2</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="5">
         <v>45231</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="6">
         <v>7424341</v>
       </c>
-      <c r="D123" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="D123" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="6">
         <v>3</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="5">
         <v>45231</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="6">
         <v>4789326</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="5">
         <v>45231</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="6">
         <v>3786799</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>5</v>
-      </c>
-      <c r="B126" s="2">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="6">
+        <v>5</v>
+      </c>
+      <c r="B126" s="5">
         <v>45231</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="6">
         <v>3515426</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>6</v>
-      </c>
-      <c r="B127" s="2">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="6">
+        <v>6</v>
+      </c>
+      <c r="B127" s="5">
         <v>45231</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="6">
         <v>2885739</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="5">
         <v>45231</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="6">
         <v>2362247</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="6">
         <v>8</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="5">
         <v>45231</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="6">
         <v>2021347</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="A130" s="6">
         <v>9</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="5">
         <v>45231</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="6">
         <v>1595595</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="A131" s="6">
         <v>10</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="5">
         <v>45231</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="A132" s="6">
         <v>11</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="5">
         <v>45231</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="6">
         <v>1073212</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="A133" s="6">
         <v>12</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="5">
         <v>45231</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="6">
         <v>811367</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="A134" s="6">
         <v>1</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="5">
         <v>45261</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="6">
         <v>7323107</v>
       </c>
-      <c r="D134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="D134" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="A135" s="6">
         <v>2</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="5">
         <v>45261</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="6">
         <v>9952758</v>
       </c>
-      <c r="D135" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="D135" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="A136" s="6">
         <v>3</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="5">
         <v>45261</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="6">
         <v>5342970</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="A137" s="6">
         <v>4</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="5">
         <v>45261</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="6">
         <v>4842486</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>5</v>
-      </c>
-      <c r="B138" s="2">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+      <c r="A138" s="6">
+        <v>5</v>
+      </c>
+      <c r="B138" s="5">
         <v>45261</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>6</v>
-      </c>
-      <c r="B139" s="2">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="6">
+        <v>6</v>
+      </c>
+      <c r="B139" s="5">
         <v>45261</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="6">
         <v>4032503</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="A140" s="6">
         <v>7</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="5">
         <v>45261</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="6">
         <v>3234602</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="A141" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="5">
         <v>45261</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="6">
         <v>2442095</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="A142" s="6">
         <v>9</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="5">
         <v>45261</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="6">
         <v>1805451</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="A143" s="6">
         <v>10</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="5">
         <v>45261</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="6">
         <v>1643651</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+      <c r="A144" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="5">
         <v>45261</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="6">
         <v>1259005</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="A145" s="6">
         <v>12</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="5">
         <v>45261</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="6">
         <v>999281</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+      <c r="A146" s="6">
         <v>1</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="5">
         <v>45292</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="6">
         <v>6434145</v>
       </c>
-      <c r="D146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="D146" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="A147" s="6">
         <v>2</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="5">
         <v>45292</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="6">
         <v>7367140</v>
       </c>
-      <c r="D147" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="D147" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+      <c r="A148" s="6">
         <v>3</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="5">
         <v>45292</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="6">
         <v>4680195</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+      <c r="A149" s="6">
         <v>4</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="5">
         <v>45292</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="6">
         <v>3555638</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>5</v>
-      </c>
-      <c r="B150" s="2">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+      <c r="A150" s="6">
+        <v>5</v>
+      </c>
+      <c r="B150" s="5">
         <v>45292</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>6</v>
-      </c>
-      <c r="B151" s="2">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+      <c r="A151" s="6">
+        <v>6</v>
+      </c>
+      <c r="B151" s="5">
         <v>45292</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="6">
         <v>3092709</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+      <c r="A152" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="5">
         <v>45292</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="6">
         <v>2550583</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="A153" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="5">
         <v>45292</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="6">
         <v>2053173</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+      <c r="A154" s="6">
         <v>9</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="5">
         <v>45292</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="6">
         <v>1496049</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+      <c r="A155" s="6">
         <v>10</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="5">
         <v>45292</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="6">
         <v>1201767</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+      <c r="A156" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="5">
         <v>45292</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="6">
         <v>1098951</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+      <c r="A157" s="6">
         <v>12</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="5">
         <v>45292</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="6">
         <v>794557</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+      <c r="A158" s="6">
         <v>1</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="5">
         <v>45323</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="6">
         <v>5644477</v>
       </c>
-      <c r="D158" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="D158" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+      <c r="A159" s="6">
         <v>2</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="5">
         <v>45323</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="6">
         <v>7218947</v>
       </c>
-      <c r="D159" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="D159" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+      <c r="A160" s="6">
         <v>3</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="5">
         <v>45323</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="6">
         <v>4598634</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+      <c r="A161" s="6">
         <v>4</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="5">
         <v>45323</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="6">
         <v>3519819</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+      <c r="A162" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="5">
         <v>45323</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="6">
         <v>3594219</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>6</v>
-      </c>
-      <c r="B163" t="s">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+      <c r="A163" s="6">
+        <v>6</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="6">
         <v>3164018</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+      <c r="A164" s="6">
         <v>7</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="5">
         <v>45323</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="6">
         <v>2695619</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+      <c r="A165" s="6">
         <v>8</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="5">
         <v>45323</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="6">
         <v>1891538</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+      <c r="A166" s="6">
         <v>9</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="5">
         <v>45323</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="6">
         <v>1444133</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+      <c r="A167" s="6">
         <v>10</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="5">
         <v>45323</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="6">
         <v>1279298</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+      <c r="A168" s="6">
         <v>11</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="5">
         <v>45323</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="6">
         <v>977891</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+      <c r="A169" s="6">
         <v>12</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="5">
         <v>45323</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="6">
         <v>830230</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+      <c r="A170" s="6">
         <v>1</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="5">
         <v>45352</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="6">
         <v>6525233</v>
       </c>
-      <c r="D170" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="D170" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+      <c r="A171" s="6">
         <v>2</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="6">
         <v>6882403</v>
       </c>
-      <c r="D171" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="D171" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+      <c r="A172" s="6">
         <v>3</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="6">
         <v>4794750</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+      <c r="A173" s="6">
         <v>4</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="5">
         <v>45352</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="6">
         <v>3271395</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>5</v>
-      </c>
-      <c r="B174" s="2">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+      <c r="A174" s="6">
+        <v>5</v>
+      </c>
+      <c r="B174" s="5">
         <v>45352</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="6">
         <v>3503536</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>6</v>
-      </c>
-      <c r="B175" s="2">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+      <c r="A175" s="6">
+        <v>6</v>
+      </c>
+      <c r="B175" s="5">
         <v>45352</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="6">
         <v>2700290</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+      <c r="A176" s="6">
         <v>7</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="5">
         <v>45352</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="6">
         <v>2294632</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+      <c r="A177" s="6">
         <v>8</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="5">
         <v>45352</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="6">
         <v>2040908</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+      <c r="A178" s="6">
         <v>9</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="5">
         <v>45352</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="6">
         <v>1498741</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+      <c r="A179" s="6">
         <v>10</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="5">
         <v>45352</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="6">
         <v>1114174</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+      <c r="A180" s="6">
         <v>11</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="5">
         <v>45352</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="6">
         <v>1071703</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+      <c r="A181" s="6">
         <v>12</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="5">
         <v>45352</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="6">
         <v>854402</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+      <c r="A182" s="6">
         <v>1</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="5">
         <v>45383</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="6">
         <v>6196783</v>
       </c>
-      <c r="D182" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="D182" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+      <c r="A183" s="6">
         <v>2</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="5">
         <v>45383</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="6">
         <v>7156323</v>
       </c>
-      <c r="D183" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="D183" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+      <c r="A184" s="6">
         <v>3</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="5">
         <v>45383</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="6">
         <v>4847426</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+      <c r="A185" s="6">
         <v>4</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="5">
         <v>45383</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="6">
         <v>3348766</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>5</v>
-      </c>
-      <c r="B186" s="2">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+      <c r="A186" s="6">
+        <v>5</v>
+      </c>
+      <c r="B186" s="5">
         <v>45383</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="6">
         <v>3634029</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+      <c r="A187" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="5">
         <v>45383</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="6">
         <v>3292268</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+      <c r="A188" s="6">
         <v>7</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="5">
         <v>45383</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="6">
         <v>2400070</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+      <c r="A189" s="6">
         <v>8</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="5">
         <v>45383</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="6">
         <v>1985200</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+      <c r="A190" s="6">
         <v>9</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="5">
         <v>45383</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="6">
         <v>1391803</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+      <c r="A191" s="6">
         <v>10</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="5">
         <v>45383</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="6">
         <v>1254155</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+      <c r="A192" s="6">
         <v>11</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="5">
         <v>45383</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="6">
         <v>1010997</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+      <c r="A193" s="6">
         <v>12</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="5">
         <v>45383</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="6">
         <v>776016</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+      <c r="A194" s="6">
         <v>1</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="5">
         <v>45413</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="6">
         <v>6529484</v>
       </c>
-      <c r="D194" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="D194" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+      <c r="A195" s="6">
         <v>2</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="5">
         <v>45413</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="6">
         <v>7811970</v>
       </c>
-      <c r="D195" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="D195" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+      <c r="A196" s="6">
         <v>3</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="5">
         <v>45413</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="6">
         <v>4174063</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
+      <c r="A197" s="6">
         <v>4</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="5">
         <v>45413</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="6">
         <v>3242139</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>5</v>
-      </c>
-      <c r="B198" s="2">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
+      <c r="A198" s="6">
+        <v>5</v>
+      </c>
+      <c r="B198" s="5">
         <v>45413</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="6">
         <v>3457158</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
+      <c r="A199" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="5">
         <v>45413</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="6">
         <v>3179088</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
+      <c r="A200" s="6">
         <v>7</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="5">
         <v>45413</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="6">
         <v>2407915</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
+      <c r="A201" s="6">
         <v>8</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="5">
         <v>45413</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="6">
         <v>2054870</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+      <c r="A202" s="6">
         <v>9</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="5">
         <v>45413</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="6">
         <v>1537340</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+      <c r="A203" s="6">
         <v>10</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="5">
         <v>45413</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="6">
         <v>1241231</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+      <c r="A204" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="5">
         <v>45413</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="6">
         <v>1000745</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+      <c r="A205" s="6">
         <v>12</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="5">
         <v>45413</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+      <c r="A206" s="6">
         <v>1</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="5">
         <v>45444</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="6">
         <v>4732107</v>
       </c>
-      <c r="D206" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="D206" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+      <c r="A207" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="5">
         <v>45444</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="6">
         <v>6217220</v>
       </c>
-      <c r="D207" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="D207" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+      <c r="A208" s="6">
         <v>3</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="5">
         <v>45444</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="6">
         <v>3736987</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+      <c r="A209" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="5">
         <v>45444</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="6">
         <v>2866828</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>5</v>
-      </c>
-      <c r="B210" s="2">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+      <c r="A210" s="6">
+        <v>5</v>
+      </c>
+      <c r="B210" s="5">
         <v>45444</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="6">
         <v>2969048</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>6</v>
-      </c>
-      <c r="B211" s="2">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+      <c r="A211" s="6">
+        <v>6</v>
+      </c>
+      <c r="B211" s="5">
         <v>45444</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="6">
         <v>2421319</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+      <c r="A212" s="6">
         <v>7</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="5">
         <v>45444</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="6">
         <v>1897335</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+      <c r="A213" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="5">
         <v>45444</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="6">
         <v>1606008</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+      <c r="A214" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="5">
         <v>45444</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="6">
         <v>1147393</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+      <c r="A215" s="6">
         <v>10</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="5">
         <v>45444</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="6">
         <v>1024827</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+      <c r="A216" s="6">
         <v>11</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="5">
         <v>45444</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+      <c r="A217" s="6">
         <v>12</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="5">
         <v>45444</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="6">
         <v>693405</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+      <c r="A218" s="6">
         <v>1</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="5">
         <v>45474</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="6">
         <v>4887237</v>
       </c>
-      <c r="D218" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="D218" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+      <c r="A219" s="6">
         <v>2</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="5">
         <v>45474</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D219" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="D219" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+      <c r="A220" s="6">
         <v>3</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="5">
         <v>45474</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="6">
         <v>3467674</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+      <c r="A221" s="6">
         <v>4</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="5">
         <v>45474</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="6">
         <v>2707091</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>5</v>
-      </c>
-      <c r="B222" s="2">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+      <c r="A222" s="6">
+        <v>5</v>
+      </c>
+      <c r="B222" s="5">
         <v>45474</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="6">
         <v>2607308</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>6</v>
-      </c>
-      <c r="B223" s="2">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+      <c r="A223" s="6">
+        <v>6</v>
+      </c>
+      <c r="B223" s="5">
         <v>45474</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="6">
         <v>2444725</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+      <c r="A224" s="6">
         <v>7</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="5">
         <v>45474</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="6">
         <v>2156590</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+      <c r="A225" s="6">
         <v>8</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="5">
         <v>45474</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="6">
         <v>1573598</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+      <c r="A226" s="6">
         <v>9</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="5">
         <v>45474</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="6">
         <v>1128288</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+      <c r="A227" s="6">
         <v>10</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="5">
         <v>45474</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+      <c r="A228" s="6">
         <v>11</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="5">
         <v>45474</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="6">
         <v>796553</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+      <c r="A229" s="6">
         <v>12</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="5">
         <v>45474</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="6">
         <v>671859</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+      <c r="A230" s="6">
         <v>1</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="5">
         <v>45505</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="6">
         <v>6560962</v>
       </c>
-      <c r="D230" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="D230" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+      <c r="A231" s="6">
         <v>2</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="5">
         <v>45505</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="6">
         <v>6971332</v>
       </c>
-      <c r="D231" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="D231" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+      <c r="A232" s="6">
         <v>3</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="6">
         <v>4908015</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+      <c r="A233" s="6">
         <v>4</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="5">
         <v>45505</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="6">
         <v>3168577</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>5</v>
-      </c>
-      <c r="B234" s="2">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+      <c r="A234" s="6">
+        <v>5</v>
+      </c>
+      <c r="B234" s="5">
         <v>45505</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="6">
         <v>3262107</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>6</v>
-      </c>
-      <c r="B235" s="2">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+      <c r="A235" s="6">
+        <v>6</v>
+      </c>
+      <c r="B235" s="5">
         <v>45505</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="6">
         <v>2862446</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+      <c r="A236" s="6">
         <v>7</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="5">
         <v>45505</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="6">
         <v>2272071</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+      <c r="A237" s="6">
         <v>8</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="5">
         <v>45505</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="6">
         <v>1871521</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+      <c r="A238" s="6">
         <v>9</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="5">
         <v>45505</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="6">
         <v>1604311</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+      <c r="A239" s="6">
         <v>10</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="5">
         <v>45505</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="6">
         <v>1198056</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+      <c r="A240" s="6">
         <v>11</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="5">
         <v>45505</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="6">
         <v>1098227</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+      <c r="A241" s="6">
         <v>12</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="5">
         <v>45505</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="6">
         <v>828946</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+      <c r="A242" s="6">
         <v>1</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="5">
         <v>45536</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="6">
         <v>7818166</v>
       </c>
-      <c r="D242" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="D242" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+      <c r="A243" s="6">
         <v>2</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="5">
         <v>45536</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="6">
         <v>9963919</v>
       </c>
-      <c r="D243" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="D243" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+      <c r="A244" s="6">
         <v>3</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="5">
         <v>45536</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="6">
         <v>5775623</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+      <c r="A245" s="6">
         <v>4</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="5">
         <v>45536</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="6">
         <v>4648322</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>5</v>
-      </c>
-      <c r="B246" s="2">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+      <c r="A246" s="6">
+        <v>5</v>
+      </c>
+      <c r="B246" s="5">
         <v>45536</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="6">
         <v>4751273</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>6</v>
-      </c>
-      <c r="B247" s="2">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+      <c r="A247" s="6">
+        <v>6</v>
+      </c>
+      <c r="B247" s="5">
         <v>45536</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="6">
         <v>3515625</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+      <c r="A248" s="6">
         <v>7</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="5">
         <v>45536</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="6">
         <v>3451040</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+      <c r="A249" s="6">
         <v>8</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="5">
         <v>45536</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="6">
         <v>2716121</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+      <c r="A250" s="6">
         <v>9</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="5">
         <v>45536</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="6">
         <v>2014394</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+      <c r="A251" s="6">
         <v>10</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="5">
         <v>45536</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="6">
         <v>1503179</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+      <c r="A252" s="6">
         <v>11</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="5">
         <v>45536</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="6">
         <v>1422694</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+      <c r="A253" s="6">
         <v>12</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="5">
         <v>45536</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="6">
         <v>1035068</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+      <c r="A254" s="6">
         <v>1</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="5">
         <v>45566</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="6">
         <v>5787570</v>
       </c>
-      <c r="D254" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="D254" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+      <c r="A255" s="6">
         <v>2</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="5">
         <v>45566</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="6">
         <v>8246889</v>
       </c>
-      <c r="D255" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="D255" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+      <c r="A256" s="6">
         <v>3</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="5">
         <v>45566</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="6">
         <v>4385553</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+      <c r="A257" s="6">
         <v>4</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="6">
         <v>3601186</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>5</v>
-      </c>
-      <c r="B258" s="2">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+      <c r="A258" s="6">
+        <v>5</v>
+      </c>
+      <c r="B258" s="5">
         <v>45566</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="6">
         <v>3549722</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>6</v>
-      </c>
-      <c r="B259" t="s">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+      <c r="A259" s="6">
+        <v>6</v>
+      </c>
+      <c r="B259" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="6">
         <v>2805159</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+      <c r="A260" s="6">
         <v>7</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="5">
         <v>45566</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="6">
         <v>2375124</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+      <c r="A261" s="6">
         <v>8</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="5">
         <v>45566</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="6">
         <v>2055243</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+      <c r="A262" s="6">
         <v>9</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="6">
         <v>1612296</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+      <c r="A263" s="6">
         <v>10</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="5">
         <v>45566</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
+      <c r="A264" s="6">
         <v>11</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="5">
         <v>45566</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="6">
         <v>1049972</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
+      <c r="A265" s="6">
         <v>12</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="5">
         <v>45566</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="6">
         <v>734995</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
+      <c r="A266" s="6">
         <v>1</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="5">
         <v>45597</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="6">
         <v>6031560</v>
       </c>
-      <c r="D266" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="D266" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+      <c r="A267" s="6">
         <v>2</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="5">
         <v>45597</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="6">
         <v>7870914</v>
       </c>
-      <c r="D267" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="D267" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
+      <c r="A268" s="6">
         <v>3</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="5">
         <v>45597</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="6">
         <v>4604845</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
+      <c r="A269" s="6">
         <v>4</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="5">
         <v>45597</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="6">
         <v>3754378</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>5</v>
-      </c>
-      <c r="B270" s="2">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
+      <c r="A270" s="6">
+        <v>5</v>
+      </c>
+      <c r="B270" s="5">
         <v>45597</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="6">
         <v>3545751</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>6</v>
-      </c>
-      <c r="B271" s="2">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
+      <c r="A271" s="6">
+        <v>6</v>
+      </c>
+      <c r="B271" s="5">
         <v>45597</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="6">
         <v>2760549</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
+      <c r="A272" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="5">
         <v>45597</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="6">
         <v>2397742</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
+      <c r="A273" s="6">
         <v>8</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="5">
         <v>45597</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="6">
         <v>2172674</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
+      <c r="A274" s="6">
         <v>9</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="5">
         <v>45597</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="6">
         <v>1371020</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
+      <c r="A275" s="6">
         <v>10</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="5">
         <v>45597</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
+      <c r="A276" s="6">
         <v>11</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="5">
         <v>45597</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="6">
         <v>1058661</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
+      <c r="A277" s="6">
         <v>12</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277" s="5">
         <v>45597</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="6">
         <v>833400</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
+      <c r="A278" s="6">
         <v>1</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278" s="5">
         <v>45627</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="6">
         <v>7622001</v>
       </c>
-      <c r="D278" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="D278" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
+      <c r="A279" s="6">
         <v>2</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279" s="5">
         <v>45627</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="6">
         <v>9060864</v>
       </c>
-      <c r="D279" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="D279" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
+      <c r="A280" s="6">
         <v>3</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280" s="5">
         <v>45627</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="6">
         <v>5860059</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
+      <c r="A281" s="6">
         <v>4</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281" s="5">
         <v>45627</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="6">
         <v>4926488</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>5</v>
-      </c>
-      <c r="B282" s="2">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
+      <c r="A282" s="6">
+        <v>5</v>
+      </c>
+      <c r="B282" s="5">
         <v>45627</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="6">
         <v>4363809</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>6</v>
-      </c>
-      <c r="B283" s="2">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
+      <c r="A283" s="6">
+        <v>6</v>
+      </c>
+      <c r="B283" s="5">
         <v>45627</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="6">
         <v>3802516</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
+      <c r="A284" s="6">
         <v>7</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284" s="5">
         <v>45627</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="6">
         <v>3144791</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
+      <c r="A285" s="6">
         <v>8</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285" s="5">
         <v>45627</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="6">
         <v>2461019</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
+      <c r="A286" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286" s="5">
         <v>45627</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="6">
         <v>1818346</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
+      <c r="A287" s="6">
         <v>10</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287" s="5">
         <v>45627</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="6">
         <v>1696828</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
+      <c r="A288" s="6">
         <v>11</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288" s="5">
         <v>45627</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="6">
         <v>1290539</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
+      <c r="A289" s="6">
         <v>12</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289" s="5">
         <v>45627</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="6">
         <v>983530</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
+      <c r="A290" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290" s="5">
         <v>45658</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="6">
         <v>6347150</v>
       </c>
-      <c r="D290" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="D290" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
+      <c r="A291" s="6">
         <v>2</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="5">
         <v>45658</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="6">
         <v>7598279</v>
       </c>
-      <c r="D291" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="D291" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
+      <c r="A292" s="6">
         <v>3</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292" s="5">
         <v>45658</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="6">
         <v>4537696</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
+      <c r="A293" s="6">
         <v>4</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="5">
         <v>45658</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="6">
         <v>3801724</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>5</v>
-      </c>
-      <c r="B294" t="s">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
+      <c r="A294" s="6">
+        <v>5</v>
+      </c>
+      <c r="B294" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="6">
         <v>3264073</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>6</v>
-      </c>
-      <c r="B295" s="2">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
+      <c r="A295" s="6">
+        <v>6</v>
+      </c>
+      <c r="B295" s="5">
         <v>45658</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="6">
         <v>2811718</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
+      <c r="A296" s="6">
         <v>7</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="5">
         <v>45658</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="6">
         <v>2311161</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
+      <c r="A297" s="6">
         <v>8</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="5">
         <v>45658</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="6">
         <v>2007817</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
+      <c r="A298" s="6">
         <v>9</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298" s="5">
         <v>45658</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
+      <c r="A299" s="6">
         <v>10</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="5">
         <v>45658</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="6">
         <v>1231581</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
+      <c r="A300" s="6">
         <v>11</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="5">
         <v>45658</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="6">
         <v>987187</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
+      <c r="A301" s="6">
         <v>12</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="5">
         <v>45658</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="6">
         <v>741780</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
+      <c r="A302" s="6">
         <v>1</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302" s="5">
         <v>45689</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="6">
         <v>6405086</v>
       </c>
-      <c r="D302" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="D302" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
+      <c r="A303" s="6">
         <v>2</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303" s="5">
         <v>45689</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D303" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="D303" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
+      <c r="A304" s="6">
         <v>3</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304" s="5">
         <v>45689</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
+      <c r="A305" s="6">
         <v>4</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305" s="5">
         <v>45689</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="6">
         <v>3613640</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>5</v>
-      </c>
-      <c r="B306" s="2">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
+      <c r="A306" s="6">
+        <v>5</v>
+      </c>
+      <c r="B306" s="5">
         <v>45689</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="6">
         <v>3240397</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>6</v>
-      </c>
-      <c r="B307" s="2">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
+      <c r="A307" s="6">
+        <v>6</v>
+      </c>
+      <c r="B307" s="5">
         <v>45689</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="6">
         <v>2869995</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
+      <c r="A308" s="6">
         <v>7</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="6">
         <v>2423891</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
+      <c r="A309" s="6">
         <v>8</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309" s="5">
         <v>45689</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="6">
         <v>2132232</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
+      <c r="A310" s="6">
         <v>9</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="5">
         <v>45689</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="6">
         <v>1404862</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
+      <c r="A311" s="6">
         <v>10</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311" s="5">
         <v>45689</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="6">
         <v>1082481</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
+      <c r="A312" s="6">
         <v>11</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312" s="5">
         <v>45689</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="6">
         <v>1042766</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
+      <c r="A313" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313" s="5">
         <v>45689</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="6">
         <v>736126</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
+      <c r="A314" s="6">
         <v>1</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314" s="5">
         <v>45717</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="6">
         <v>5464350</v>
       </c>
-      <c r="D314" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="D314" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
+      <c r="A315" s="6">
         <v>2</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315" s="5">
         <v>45717</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="6">
         <v>7671341</v>
       </c>
-      <c r="D315" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="D315" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
+      <c r="A316" s="6">
         <v>3</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316" s="5">
         <v>45717</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="6">
         <v>4477350</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
+      <c r="A317" s="6">
         <v>4</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317" s="5">
         <v>45717</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="6">
         <v>3259064</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>5</v>
-      </c>
-      <c r="B318" s="2">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
+      <c r="A318" s="6">
+        <v>5</v>
+      </c>
+      <c r="B318" s="5">
         <v>45717</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>6</v>
-      </c>
-      <c r="B319" s="2">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
+      <c r="A319" s="6">
+        <v>6</v>
+      </c>
+      <c r="B319" s="5">
         <v>45717</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="6">
         <v>3289802</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
+      <c r="A320" s="6">
         <v>7</v>
       </c>
-      <c r="B320" s="2">
+      <c r="B320" s="5">
         <v>45717</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="6">
         <v>2511489</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
+      <c r="A321" s="6">
         <v>8</v>
       </c>
-      <c r="B321" s="2">
+      <c r="B321" s="5">
         <v>45717</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="6">
         <v>1943878</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
+      <c r="A322" s="6">
         <v>9</v>
       </c>
-      <c r="B322" s="2">
+      <c r="B322" s="5">
         <v>45717</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="6">
         <v>1564745</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
+      <c r="A323" s="6">
         <v>10</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323" s="5">
         <v>45717</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="6">
         <v>1302740</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
+      <c r="A324" s="6">
         <v>11</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324" s="5">
         <v>45717</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="6">
         <v>1082487</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
+      <c r="A325" s="6">
         <v>12</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325" s="5">
         <v>45717</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="6">
         <v>728376</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
+      <c r="A326" s="6">
         <v>1</v>
       </c>
-      <c r="B326" s="2">
+      <c r="B326" s="5">
         <v>45748</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="6">
         <v>5630732</v>
       </c>
-      <c r="D326" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="D326" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
+      <c r="A327" s="6">
         <v>2</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327" s="5">
         <v>45748</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="6">
         <v>7766043</v>
       </c>
-      <c r="D327" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="D327" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
+      <c r="A328" s="6">
         <v>3</v>
       </c>
-      <c r="B328" s="2">
+      <c r="B328" s="5">
         <v>45748</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="6">
         <v>4498008</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
+      <c r="A329" s="6">
         <v>4</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B329" s="5">
         <v>45748</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="6">
         <v>3504181</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
+      <c r="A330" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330" s="5">
         <v>45748</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="6">
         <v>3496258</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>6</v>
-      </c>
-      <c r="B331" s="2">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
+      <c r="A331" s="6">
+        <v>6</v>
+      </c>
+      <c r="B331" s="5">
         <v>45748</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="6">
         <v>3077311</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
+      <c r="A332" s="6">
         <v>7</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="6">
         <v>2511219</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
+      <c r="A333" s="6">
         <v>8</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333" s="5">
         <v>45748</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="6">
         <v>2028810</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
+      <c r="A334" s="6">
         <v>9</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334" s="5">
         <v>45748</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="6">
         <v>1627697</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
+      <c r="A335" s="6">
         <v>10</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335" s="5">
         <v>45748</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="6">
         <v>1083306</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
+      <c r="A336" s="6">
         <v>11</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336" s="5">
         <v>45748</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="6">
         <v>965514</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
+      <c r="A337" s="6">
         <v>12</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="6">
         <v>812758</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
+      <c r="A338" s="6">
         <v>1</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338" s="5">
         <v>45778</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="6">
         <v>6135639</v>
       </c>
-      <c r="D338" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="D338" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
+      <c r="A339" s="6">
         <v>2</v>
       </c>
-      <c r="B339" s="2">
+      <c r="B339" s="5">
         <v>45778</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="6">
         <v>7766931</v>
       </c>
-      <c r="D339" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="D339" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
+      <c r="A340" s="6">
         <v>3</v>
       </c>
-      <c r="B340" s="2">
+      <c r="B340" s="5">
         <v>45778</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="6">
         <v>4354294</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
+      <c r="A341" s="6">
         <v>4</v>
       </c>
-      <c r="B341" s="2">
+      <c r="B341" s="5">
         <v>45778</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="6">
         <v>3549343</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>5</v>
-      </c>
-      <c r="B342" s="2">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
+      <c r="A342" s="6">
+        <v>5</v>
+      </c>
+      <c r="B342" s="5">
         <v>45778</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="6">
         <v>3516987</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>6</v>
-      </c>
-      <c r="B343" s="2">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
+      <c r="A343" s="6">
+        <v>6</v>
+      </c>
+      <c r="B343" s="5">
         <v>45778</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="6">
         <v>3286225</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
+      <c r="A344" s="6">
         <v>7</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344" s="5">
         <v>45778</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="6">
         <v>2653486</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
+      <c r="A345" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345" s="5">
         <v>45778</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="6">
         <v>1957723</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
+      <c r="A346" s="6">
         <v>9</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346" s="5">
         <v>45778</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="6">
         <v>1488333</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
+      <c r="A347" s="6">
         <v>10</v>
       </c>
-      <c r="B347" s="2">
+      <c r="B347" s="5">
         <v>45778</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="6">
         <v>1210728</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
+      <c r="A348" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B348" s="2">
+      <c r="B348" s="5">
         <v>45778</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="6">
         <v>1079580</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
+      <c r="A349" s="6">
         <v>12</v>
       </c>
-      <c r="B349" s="2">
+      <c r="B349" s="5">
         <v>45778</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="6">
         <v>851004</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
+      <c r="A350" s="6">
         <v>1</v>
       </c>
-      <c r="B350" s="2">
+      <c r="B350" s="5">
         <v>45809</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="6">
         <v>5095271</v>
       </c>
-      <c r="D350" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="D350" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
+      <c r="A351" s="6">
         <v>2</v>
       </c>
-      <c r="B351" s="2">
+      <c r="B351" s="5">
         <v>45809</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="6">
         <v>6131581</v>
       </c>
-      <c r="D351" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="D351" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
+      <c r="A352" s="6">
         <v>3</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352" s="5">
         <v>45809</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="6">
         <v>3498516</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
+      <c r="A353" s="6">
         <v>4</v>
       </c>
-      <c r="B353" s="2">
+      <c r="B353" s="5">
         <v>45809</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="6">
         <v>2869201</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>5</v>
-      </c>
-      <c r="B354" s="2">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
+      <c r="A354" s="6">
+        <v>5</v>
+      </c>
+      <c r="B354" s="5">
         <v>45809</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="6">
         <v>2804328</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>6</v>
-      </c>
-      <c r="B355" s="2">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
+      <c r="A355" s="6">
+        <v>6</v>
+      </c>
+      <c r="B355" s="5">
         <v>45809</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="6">
         <v>2583366</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
+      <c r="A356" s="6">
         <v>7</v>
       </c>
-      <c r="B356" s="2">
+      <c r="B356" s="5">
         <v>45809</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="6">
         <v>1807837</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
+      <c r="A357" s="6">
         <v>8</v>
       </c>
-      <c r="B357" s="2">
+      <c r="B357" s="5">
         <v>45809</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="6">
         <v>1675879</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
+      <c r="A358" s="6">
         <v>9</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="6">
         <v>1263223</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
+      <c r="A359" s="6">
         <v>10</v>
       </c>
-      <c r="B359" s="2">
+      <c r="B359" s="5">
         <v>45809</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="6">
         <v>1030079</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
+      <c r="A360" s="6">
         <v>11</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="6">
         <v>831496</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
+      <c r="A361" s="6">
         <v>12</v>
       </c>
-      <c r="B361" s="2">
+      <c r="B361" s="5">
         <v>45809</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="6">
         <v>652188</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
+      <c r="A362" s="6">
         <v>1</v>
       </c>
-      <c r="B362" s="2">
+      <c r="B362" s="5">
         <v>45839</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="6">
         <v>5055246</v>
       </c>
-      <c r="D362" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363">
+      <c r="D362" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
+      <c r="A363" s="6">
         <v>2</v>
       </c>
-      <c r="B363" s="2">
+      <c r="B363" s="5">
         <v>45839</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="6">
         <v>6276110</v>
       </c>
-      <c r="D363" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="D363" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
+      <c r="A364" s="6">
         <v>3</v>
       </c>
-      <c r="B364" s="2">
+      <c r="B364" s="5">
         <v>45839</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="6">
         <v>3580329</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
+      <c r="A365" s="6">
         <v>4</v>
       </c>
-      <c r="B365" s="2">
+      <c r="B365" s="5">
         <v>45839</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="6">
         <v>2609372</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>5</v>
-      </c>
-      <c r="B366" s="2">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
+      <c r="A366" s="6">
+        <v>5</v>
+      </c>
+      <c r="B366" s="5">
         <v>45839</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="6">
         <v>2773584</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>6</v>
-      </c>
-      <c r="B367" s="2">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
+      <c r="A367" s="6">
+        <v>6</v>
+      </c>
+      <c r="B367" s="5">
         <v>45839</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="6">
         <v>2199584</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
+      <c r="A368" s="6">
         <v>7</v>
       </c>
-      <c r="B368" s="2">
+      <c r="B368" s="5">
         <v>45839</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="6">
         <v>1989557</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
+      <c r="A369" s="6">
         <v>8</v>
       </c>
-      <c r="B369" s="2">
+      <c r="B369" s="5">
         <v>45839</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="6">
         <v>1482590</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
+      <c r="A370" s="6">
         <v>9</v>
       </c>
-      <c r="B370" s="2">
+      <c r="B370" s="5">
         <v>45839</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="6">
         <v>1217791</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
+      <c r="A371" s="6">
         <v>10</v>
       </c>
-      <c r="B371" s="2">
+      <c r="B371" s="5">
         <v>45839</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="6">
         <v>870669</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
+      <c r="A372" s="6">
         <v>11</v>
       </c>
-      <c r="B372" s="2">
+      <c r="B372" s="5">
         <v>45839</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="6">
         <v>805240</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
+      <c r="A373" s="6">
         <v>12</v>
       </c>
-      <c r="B373" s="2">
+      <c r="B373" s="5">
         <v>45839</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="6">
         <v>621323</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
+      <c r="A374" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B374" s="2">
+      <c r="B374" s="5">
         <v>45870</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="6">
         <v>6383216</v>
       </c>
-      <c r="D374" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="D374" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
+      <c r="A375" s="6">
         <v>2</v>
       </c>
-      <c r="B375" s="2">
+      <c r="B375" s="5">
         <v>45870</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="6">
         <v>7097772</v>
       </c>
-      <c r="D375" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="D375" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
+      <c r="A376" s="6">
         <v>3</v>
       </c>
-      <c r="B376" s="2">
+      <c r="B376" s="5">
         <v>45870</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
+      <c r="A377" s="6">
         <v>4</v>
       </c>
-      <c r="B377" s="2">
+      <c r="B377" s="5">
         <v>45870</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>5</v>
-      </c>
-      <c r="B378" s="2">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
+      <c r="A378" s="6">
+        <v>5</v>
+      </c>
+      <c r="B378" s="5">
         <v>45870</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="6">
         <v>3217494</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>6</v>
-      </c>
-      <c r="B379" s="2">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
+      <c r="A379" s="6">
+        <v>6</v>
+      </c>
+      <c r="B379" s="5">
         <v>45870</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="6">
         <v>2965817</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
+      <c r="A380" s="6">
         <v>7</v>
       </c>
-      <c r="B380" s="2">
+      <c r="B380" s="5">
         <v>45870</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="6">
         <v>2474294</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
+      <c r="A381" s="6">
         <v>8</v>
       </c>
-      <c r="B381" s="2">
+      <c r="B381" s="5">
         <v>45870</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="6">
         <v>1978299</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
+      <c r="A382" s="6">
         <v>9</v>
       </c>
-      <c r="B382" s="2">
+      <c r="B382" s="5">
         <v>45870</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="6">
         <v>1357342</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
+      <c r="A383" s="6">
         <v>10</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="6">
         <v>1296498</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
+      <c r="A384" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B384" s="2">
+      <c r="B384" s="5">
         <v>45870</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="6">
         <v>1050280</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
+      <c r="A385" s="6">
         <v>12</v>
       </c>
-      <c r="B385" s="2">
+      <c r="B385" s="5">
         <v>45870</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="6">
         <v>775940</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
+      <c r="A386" s="6">
         <v>1</v>
       </c>
-      <c r="B386" s="2">
+      <c r="B386" s="5">
         <v>45901</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="6">
         <v>7605819</v>
       </c>
-      <c r="D386" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="D386" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
+      <c r="A387" s="6">
         <v>2</v>
       </c>
-      <c r="B387" s="2">
+      <c r="B387" s="5">
         <v>45901</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="6">
         <v>8847379</v>
       </c>
-      <c r="D387" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="D387" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
+      <c r="A388" s="6">
         <v>3</v>
       </c>
-      <c r="B388" s="2">
+      <c r="B388" s="5">
         <v>45901</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="6">
         <v>5741076</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
+      <c r="A389" s="6">
         <v>4</v>
       </c>
-      <c r="B389" s="2">
+      <c r="B389" s="5">
         <v>45901</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="6">
         <v>4352297</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <v>5</v>
-      </c>
-      <c r="B390" s="2">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
+      <c r="A390" s="6">
+        <v>5</v>
+      </c>
+      <c r="B390" s="5">
         <v>45901</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>6</v>
-      </c>
-      <c r="B391" s="2">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
+      <c r="A391" s="6">
+        <v>6</v>
+      </c>
+      <c r="B391" s="5">
         <v>45901</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="6">
         <v>4077343</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D391" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
+      <c r="A392" s="6">
         <v>7</v>
       </c>
-      <c r="B392" s="2">
+      <c r="B392" s="5">
         <v>45901</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="6">
         <v>2930917</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D392" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
+      <c r="A393" s="6">
         <v>8</v>
       </c>
-      <c r="B393" s="2">
+      <c r="B393" s="5">
         <v>45901</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="6">
         <v>2614131</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
+      <c r="A394" s="6">
         <v>9</v>
       </c>
-      <c r="B394" s="2">
+      <c r="B394" s="5">
         <v>45901</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="6">
         <v>2117692</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
+      <c r="A395" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B395" s="2">
+      <c r="B395" s="5">
         <v>45901</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="6">
         <v>1626726</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D395" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
+      <c r="A396" s="6">
         <v>11</v>
       </c>
-      <c r="B396" s="2">
+      <c r="B396" s="5">
         <v>45901</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="6">
         <v>1285090</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
+      <c r="A397" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B397" s="2">
+      <c r="B397" s="5">
         <v>45901</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="6">
         <v>963026</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
+      <c r="A398" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B398" s="2">
+      <c r="B398" s="5">
         <v>45931</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="6">
         <v>6102286</v>
       </c>
-      <c r="D398" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="D398" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
+      <c r="A399" s="6">
         <v>2</v>
       </c>
-      <c r="B399" s="2">
+      <c r="B399" s="5">
         <v>45931</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="6">
         <v>7110050</v>
       </c>
-      <c r="D399" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="D399" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
+      <c r="A400" s="6">
         <v>3</v>
       </c>
-      <c r="B400" s="2">
+      <c r="B400" s="5">
         <v>45931</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="6">
         <v>4524670</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
+      <c r="A401" s="6">
         <v>4</v>
       </c>
-      <c r="B401" s="2">
+      <c r="B401" s="5">
         <v>45931</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="6">
         <v>3392923</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <v>5</v>
-      </c>
-      <c r="B402" s="2">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
+      <c r="A402" s="6">
+        <v>5</v>
+      </c>
+      <c r="B402" s="5">
         <v>45931</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="6">
         <v>3839948</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403">
-        <v>6</v>
-      </c>
-      <c r="B403" s="2">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
+      <c r="A403" s="6">
+        <v>6</v>
+      </c>
+      <c r="B403" s="5">
         <v>45931</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="6">
         <v>2795350</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
+      <c r="A404" s="6">
         <v>7</v>
       </c>
-      <c r="B404" s="2">
+      <c r="B404" s="5">
         <v>45931</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="6">
         <v>2606798</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
+      <c r="A405" s="6">
         <v>8</v>
       </c>
-      <c r="B405" s="2">
+      <c r="B405" s="5">
         <v>45931</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="6">
         <v>1880537</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
+      <c r="A406" s="6">
         <v>9</v>
       </c>
-      <c r="B406" s="2">
+      <c r="B406" s="5">
         <v>45931</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="6">
         <v>1435850</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
+      <c r="A407" s="6">
         <v>10</v>
       </c>
-      <c r="B407" s="2">
+      <c r="B407" s="5">
         <v>45931</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="6">
         <v>1219923</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
+      <c r="A408" s="6">
         <v>11</v>
       </c>
-      <c r="B408" s="2">
+      <c r="B408" s="5">
         <v>45931</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="6">
         <v>977380</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
+      <c r="A409" s="6">
         <v>12</v>
       </c>
-      <c r="B409" s="2">
+      <c r="B409" s="5">
         <v>45931</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="6">
         <v>866081</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
+      <c r="A410" s="6">
         <v>1</v>
       </c>
-      <c r="B410" s="2">
+      <c r="B410" s="5">
         <v>45962</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="6">
         <v>5549557</v>
       </c>
-      <c r="D410" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411">
+      <c r="D410" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
+      <c r="A411" s="6">
         <v>2</v>
       </c>
-      <c r="B411" s="2">
+      <c r="B411" s="5">
         <v>45962</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="6">
         <v>7050782</v>
       </c>
-      <c r="D411" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412">
+      <c r="D411" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
+      <c r="A412" s="6">
         <v>3</v>
       </c>
-      <c r="B412" s="2">
+      <c r="B412" s="5">
         <v>45962</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="6">
         <v>4475630</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
+      <c r="A413" s="6">
         <v>4</v>
       </c>
-      <c r="B413" s="2">
+      <c r="B413" s="5">
         <v>45962</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="6">
         <v>3420972</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414">
-        <v>5</v>
-      </c>
-      <c r="B414" s="2">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
+      <c r="A414" s="6">
+        <v>5</v>
+      </c>
+      <c r="B414" s="5">
         <v>45962</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="6">
         <v>3199855</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>6</v>
-      </c>
-      <c r="B415" s="2">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
+      <c r="A415" s="6">
+        <v>6</v>
+      </c>
+      <c r="B415" s="5">
         <v>45962</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="6">
         <v>2729974</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D415" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
+      <c r="A416" s="6">
         <v>7</v>
       </c>
-      <c r="B416" s="2">
+      <c r="B416" s="5">
         <v>45962</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="6">
         <v>2685123</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D416" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
+      <c r="A417" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B417" s="2">
+      <c r="B417" s="5">
         <v>45962</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="6">
         <v>2054164</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D417" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
+      <c r="A418" s="6">
         <v>9</v>
       </c>
-      <c r="B418" s="2">
+      <c r="B418" s="5">
         <v>45962</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="6">
         <v>1355377</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
+      <c r="A419" s="6">
         <v>10</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="6">
         <v>1143826</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
+      <c r="A420" s="6">
         <v>11</v>
       </c>
-      <c r="B420" s="2">
+      <c r="B420" s="5">
         <v>45962</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="6">
         <v>962657</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
+      <c r="A421" s="6">
         <v>12</v>
       </c>
-      <c r="B421" s="2">
+      <c r="B421" s="5">
         <v>45962</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D421" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
+      <c r="A422" s="6">
         <v>1</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="6">
         <v>8523759</v>
       </c>
-      <c r="D422" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="D422" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
+      <c r="A423" s="6">
         <v>2</v>
       </c>
-      <c r="B423" s="2">
+      <c r="B423" s="5">
         <v>45992</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="6">
         <v>9697137</v>
       </c>
-      <c r="D423" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="D423" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
+      <c r="A424" s="6">
         <v>3</v>
       </c>
-      <c r="B424" s="2">
+      <c r="B424" s="5">
         <v>45992</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="6">
         <v>5376467</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
+      <c r="A425" s="6">
         <v>4</v>
       </c>
-      <c r="B425" s="2">
+      <c r="B425" s="5">
         <v>45992</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="6">
         <v>4103560</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426">
-        <v>5</v>
-      </c>
-      <c r="B426" s="2">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
+      <c r="A426" s="6">
+        <v>5</v>
+      </c>
+      <c r="B426" s="5">
         <v>45992</v>
       </c>
-      <c r="C426">
+      <c r="C426" s="6">
         <v>4265113</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D426" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>6</v>
-      </c>
-      <c r="B427" s="2">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
+      <c r="A427" s="6">
+        <v>6</v>
+      </c>
+      <c r="B427" s="5">
         <v>45992</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="6">
         <v>3826101</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
+      <c r="A428" s="6">
         <v>7</v>
       </c>
-      <c r="B428" s="2">
+      <c r="B428" s="5">
         <v>45992</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="6">
         <v>3345604</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
+      <c r="A429" s="6">
         <v>8</v>
       </c>
-      <c r="B429" s="2">
+      <c r="B429" s="5">
         <v>45992</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="6">
         <v>2577353</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D429" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
+      <c r="A430" s="6">
         <v>9</v>
       </c>
-      <c r="B430" s="2">
+      <c r="B430" s="5">
         <v>45992</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="6">
         <v>2073562</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D430" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
+      <c r="A431" s="6">
         <v>10</v>
       </c>
-      <c r="B431" s="2">
+      <c r="B431" s="5">
         <v>45992</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="6">
         <v>1665996</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D431" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
+      <c r="A432" s="6">
         <v>11</v>
       </c>
-      <c r="B432" s="2">
+      <c r="B432" s="5">
         <v>45992</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="6">
         <v>1231943</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D432" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
+      <c r="A433" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B433" s="2">
+      <c r="B433" s="5">
         <v>45992</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="6">
         <v>957941</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D433" s="7" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>